--- a/GeneticProgrammingPortfolio/experiment-data/2 - stats/90/17-02-46 - no avg, min, or max/data-full.xlsx
+++ b/GeneticProgrammingPortfolio/experiment-data/2 - stats/90/17-02-46 - no avg, min, or max/data-full.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20265" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20265" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Best &amp; Avg Training" sheetId="2" r:id="rId1"/>
@@ -7373,6 +7373,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Day Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7438,6 +7493,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Normalized DJIA Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8470,7 +8580,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -8756,7 +8866,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -9052,6 +9162,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Day Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9118,6 +9283,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Normalized DJIA Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10340,7 +10560,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10351,7 +10571,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
